--- a/Kyoto/Results.xlsx
+++ b/Kyoto/Results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>2014-04</t>
   </si>
@@ -111,6 +111,50 @@
   </si>
   <si>
     <t>AVG-30</t>
+  </si>
+  <si>
+    <t>32.1</t>
+  </si>
+  <si>
+    <t>TRAINING DATA: 2013-04 - 2014-03
+INPUTS:
+hour + 24 (t-12 ... t-1) GSi
+ANN:
+n.neurons=c(25,2,1)
+learning.rate.global=1e-2
+momentum.global=0.5
+hidden.layer="tansig"
+error.criterium="LMS"
+output.layer="purelin"
+method="ADAPTgdwm"
+Zenith angle: false</t>
+  </si>
+  <si>
+    <t>28.1</t>
+  </si>
+  <si>
+    <t>31.6</t>
+  </si>
+  <si>
+    <t>34.1</t>
+  </si>
+  <si>
+    <t>32.7</t>
+  </si>
+  <si>
+    <t>27.3</t>
+  </si>
+  <si>
+    <t>25.9</t>
+  </si>
+  <si>
+    <t>34.0</t>
+  </si>
+  <si>
+    <t>29.2</t>
+  </si>
+  <si>
+    <t>AVG-15</t>
   </si>
 </sst>
 </file>
@@ -162,7 +206,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -185,21 +229,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,140 +560,203 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="73.5703125" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="225">
+    <row r="1" spans="1:7" ht="225">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
+      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="3"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="4" t="s">
+      <c r="B3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="11"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="5" t="s">
+      <c r="B4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="5" t="s">
+      <c r="C5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="5" t="s">
+      <c r="C6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="5" t="s">
+      <c r="C7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="5" t="s">
+      <c r="C8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="5" t="s">
+      <c r="C9" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="5" t="s">
+      <c r="C10" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="5" t="s">
+      <c r="C11" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="5" t="s">
+      <c r="C12" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="5" t="s">
+      <c r="C13" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="5" t="s">
+      <c r="C14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="5" t="s">
+      <c r="C15" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>23</v>
       </c>
+      <c r="C16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="2"/>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="7"/>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="2"/>
+      <c r="B23" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>

--- a/Kyoto/Results.xlsx
+++ b/Kyoto/Results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>2014-04</t>
   </si>
@@ -116,9 +116,45 @@
     <t>32.1</t>
   </si>
   <si>
+    <t>28.1</t>
+  </si>
+  <si>
+    <t>31.6</t>
+  </si>
+  <si>
+    <t>34.1</t>
+  </si>
+  <si>
+    <t>32.7</t>
+  </si>
+  <si>
+    <t>27.3</t>
+  </si>
+  <si>
+    <t>25.9</t>
+  </si>
+  <si>
+    <t>34.0</t>
+  </si>
+  <si>
+    <t>29.2</t>
+  </si>
+  <si>
+    <t>AVG-15</t>
+  </si>
+  <si>
+    <t>32.23</t>
+  </si>
+  <si>
+    <t>30.73</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
     <t>TRAINING DATA: 2013-04 - 2014-03
 INPUTS:
-hour + 24 (t-12 ... t-1) GSi
+hour + 24 (t-24 ... t-1) GSi
 ANN:
 n.neurons=c(25,2,1)
 learning.rate.global=1e-2
@@ -129,39 +165,15 @@
 method="ADAPTgdwm"
 Zenith angle: false</t>
   </si>
-  <si>
-    <t>28.1</t>
-  </si>
-  <si>
-    <t>31.6</t>
-  </si>
-  <si>
-    <t>34.1</t>
-  </si>
-  <si>
-    <t>32.7</t>
-  </si>
-  <si>
-    <t>27.3</t>
-  </si>
-  <si>
-    <t>25.9</t>
-  </si>
-  <si>
-    <t>34.0</t>
-  </si>
-  <si>
-    <t>29.2</t>
-  </si>
-  <si>
-    <t>AVG-15</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,6 +202,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -246,7 +265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -255,7 +274,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -265,7 +283,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -562,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -578,179 +599,188 @@
         <v>26</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="11"/>
+      <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>17</v>
       </c>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>23</v>
       </c>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>37</v>
+      <c r="C7" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>36</v>
+      <c r="C9" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>35</v>
+      <c r="C10" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>34</v>
+      <c r="C11" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>33</v>
+      <c r="C12" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>32</v>
+      <c r="C13" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="11" t="s">
         <v>28</v>
       </c>
       <c r="D14" s="2"/>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>30</v>
+      <c r="C15" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="D15" s="2"/>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>31</v>
+      <c r="C16" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="7"/>
-    </row>
-    <row r="23" spans="2:2">
+    <row r="17" spans="1:3">
+      <c r="A17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="B22" s="6"/>
+    </row>
+    <row r="23" spans="1:3">
       <c r="B23" s="3"/>
     </row>
   </sheetData>
